--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-534408.4963103065</v>
+        <v>-536962.4204370575</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>338.1878442013863</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>378.0771819241343</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>37.28963069703732</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>230.8127283073653</v>
+        <v>58.91278959063555</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>277.9642125695875</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>382.2576050490811</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.1524247971943</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>177.2090604069379</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>319.7924144542517</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>260.4673809610771</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>39.64650075807938</v>
       </c>
       <c r="V10" t="n">
-        <v>214.0239286024721</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>181.3074675142866</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>277.5227458350235</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>226.5568791389282</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>58.47559664514497</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>54.31367585848467</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>155.1980648094033</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>159.4039304881677</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>10.58364443467411</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.006892987834567</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146491</v>
+        <v>180.6232466454911</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.158427600213</v>
+        <v>1576.719435729147</v>
       </c>
       <c r="C2" t="n">
-        <v>1922.158427600213</v>
+        <v>1576.719435729147</v>
       </c>
       <c r="D2" t="n">
-        <v>1563.892728993463</v>
+        <v>1218.453737122396</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2524.673034766784</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2271.091974030964</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2271.091974030964</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1918.32331876085</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>1918.32331876085</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.758267664335</v>
+        <v>1918.32331876085</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844856</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159572</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1590.995858314208</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386301</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973965</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391572</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936618</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>2329.195158392716</v>
+        <v>1287.819914304966</v>
       </c>
       <c r="W4" t="n">
-        <v>2039.777988355755</v>
+        <v>998.4027442680054</v>
       </c>
       <c r="X4" t="n">
-        <v>1811.788437457738</v>
+        <v>770.4131933699881</v>
       </c>
       <c r="Y4" t="n">
-        <v>1590.995858314208</v>
+        <v>549.620614226458</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756484</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.213961756484</v>
+        <v>1573.605000632548</v>
       </c>
       <c r="D5" t="n">
-        <v>1142.948263149734</v>
+        <v>1215.339302025798</v>
       </c>
       <c r="E5" t="n">
-        <v>757.1600105514894</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>750.214509802286</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>2329.167357637082</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>883.4114536130581</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1466.779155756748</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1466.779155756748</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.094667550861</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>922.6774975139006</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X7" t="n">
-        <v>922.6774975139006</v>
+        <v>1285.852497586828</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.6774975139006</v>
+        <v>1065.059918443298</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.643962205201</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>371.6073797998633</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269323</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.243802269323</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4884,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4993,19 +4993,19 @@
         <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1575.65050495284</v>
       </c>
       <c r="V10" t="n">
-        <v>1399.511688948403</v>
+        <v>1320.966016746953</v>
       </c>
       <c r="W10" t="n">
-        <v>1110.094518911442</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="X10" t="n">
-        <v>882.1049680134252</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="Y10" t="n">
-        <v>661.312388869895</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5042,46 +5042,46 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135315</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5467,19 +5467,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121936</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784063</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2325.055080985709</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2105.45361600865</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1816.378389352848</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703114</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>545.3854261579756</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>397.4723325755825</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>250.5823850776722</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +5999,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>577.8620388433919</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>642.3917942749049</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2041.469518613829</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.394291958027</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.70980375214</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.292633715179</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>980.3030828171618</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.5105036736317</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,25 +7804,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9556134883073923</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204.0910297264755</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.853188148127458</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>169.3685542831964</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>104.8770068749621</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>9.000252501567502</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101226</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>59.62759525031592</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>167.2340587438922</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>126.7126101431599</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.32607348286555</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>59.18072286392712</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>135.8503182118951</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.36835372228709</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194186</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-2.862155085169411e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26317,22 +26317,22 @@
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="G2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
         <v>262322.644899252</v>
@@ -26347,13 +26347,13 @@
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
+        <v>266838.5752058925</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="O2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71582.80975987327</v>
+        <v>71582.80975987334</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312015</v>
@@ -26427,37 +26427,37 @@
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486237</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1050212.721999739</v>
+        <v>-1050503.329164585</v>
       </c>
       <c r="C6" t="n">
-        <v>-133668.2860607274</v>
+        <v>-133668.2860607271</v>
       </c>
       <c r="D6" t="n">
-        <v>69770.45555137875</v>
+        <v>69770.45555137869</v>
       </c>
       <c r="E6" t="n">
-        <v>-174159.4910537794</v>
+        <v>-174194.2289792149</v>
       </c>
       <c r="F6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281403</v>
       </c>
       <c r="G6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281401</v>
       </c>
       <c r="H6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281403</v>
       </c>
       <c r="I6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281403</v>
       </c>
       <c r="J6" t="n">
-        <v>-16352.20705640652</v>
+        <v>-16386.94498184221</v>
       </c>
       <c r="K6" t="n">
-        <v>102142.8780475213</v>
+        <v>102108.1401220857</v>
       </c>
       <c r="L6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281402</v>
       </c>
       <c r="M6" t="n">
-        <v>66197.94281806426</v>
+        <v>66163.20489262854</v>
       </c>
       <c r="N6" t="n">
         <v>126308.7377734829</v>
       </c>
       <c r="O6" t="n">
-        <v>145736.4557671145</v>
+        <v>145736.4557671146</v>
       </c>
       <c r="P6" t="n">
-        <v>145736.4557671144</v>
+        <v>145736.4557671146</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26808,16 +26808,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>44.54599746209425</v>
       </c>
       <c r="C2" t="n">
-        <v>161.181862044532</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,10 +27591,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>21.32491501646271</v>
+        <v>193.2248537331924</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.9661575026743</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>28.66412060437239</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>40.09439630143358</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.33988886923129</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>45.48047731675587</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>150.4543446923764</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>246.5653374475335</v>
       </c>
       <c r="V10" t="n">
-        <v>38.1137147213559</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M12" t="n">
-        <v>661.8411144019726</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32233,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>200.4500263280939</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>264.8708611242914</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>187.5431097317922</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893646</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M12" t="n">
-        <v>519.7070804799544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>66.47561891376371</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
